--- a/Documentation/start-14-pl-06/start-14-pl-06.xlsx
+++ b/Documentation/start-14-pl-06/start-14-pl-06.xlsx
@@ -163,7 +163,7 @@
     <t>Testowanie działania całego programu serwera (3h)</t>
   </si>
   <si>
-    <t>Metodologia: UP</t>
+    <t>Metodologia: Unified Process</t>
   </si>
 </sst>
 </file>
@@ -541,12 +541,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -579,28 +573,34 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -913,7 +913,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,76 +923,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1000,295 +1000,295 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="11" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
